--- a/medicine/Enfance/Sulari_Gentill/Sulari_Gentill.xlsx
+++ b/medicine/Enfance/Sulari_Gentill/Sulari_Gentill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sulari Gentill, née au Sri Lanka, est une femme de lettres australienne, auteure de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sulari Gentill fait des études d'astrophysique, puis de droit avant d'abandonner sa carrière juridique pour écrire des romans.
 En 2010, elle publie son premier roman, A Few Right Thinking Men, premier volume d'une série consacrée à Rowland Sinclair, gentleman-artiste-détective amateur qui enquête sur le crime organisé dans les années 1930.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Rowland Sinclair
-A Few Right Thinking Men (2010)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Rowland Sinclair</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A Few Right Thinking Men (2010)
 A Decline in Prophets (2011)
 Miles Off Course (2012)
 Paving the New Road (2012)
@@ -560,16 +582,7 @@
 All the Tears in China (2019)
 A Testament of Character (2020)
 Shanghai Secrets (2021)
-Where There’s a Will (2022)
-The Hero Trilogy
-Chasing Odysseus (2011)
-Trying War (2012)
-The Blood of Wolves (2012)
-Autres romans
-Tag, You're Dead (2016) (coécrit avec J C Lane)
-Crossing the Lines (2017)
-The Woman in the Library (2022)
-The Mystery Writer (2024)</t>
+Where There’s a Will (2022)</t>
         </is>
       </c>
     </row>
@@ -594,18 +607,142 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The Hero Trilogy</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chasing Odysseus (2011)
+Trying War (2012)
+The Blood of Wolves (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tag, You're Dead (2016) (coécrit avec J C Lane)
+Crossing the Lines (2017)
+The Woman in the Library (2022)
+The Mystery Writer (2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Ned Kelly 2018 du meilleur roman pour Crossing the Lines[1]
-Nominations
-Prix Ned Kelly 2015 du meilleur roman pour A Murder Unmentioned[1]
-Prix Agatha 2016 du meilleur roman pour jeunes adultes pour Tag, You're Dead[2]
-Prix Ned Kelly 2021 du meilleur roman pour A Testament of Character[1]
-Prix Mary-Higgins-Clark 2023 pour The Woman in the Library[3]</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Ned Kelly 2018 du meilleur roman pour Crossing the Lines</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulari_Gentill</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Ned Kelly 2015 du meilleur roman pour A Murder Unmentioned
+Prix Agatha 2016 du meilleur roman pour jeunes adultes pour Tag, You're Dead
+Prix Ned Kelly 2021 du meilleur roman pour A Testament of Character
+Prix Mary-Higgins-Clark 2023 pour The Woman in the Library</t>
         </is>
       </c>
     </row>
